--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>1 OF 1</t>
+  </si>
+  <si>
+    <t>Endaya Construction Sdn Bhd</t>
+  </si>
+  <si>
+    <t>JKR Sarawak, Miri Division</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1010,141 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,141 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,7 +1306,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1356,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1435,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,102 +1862,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:Q32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="17" width="6.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="2" customWidth="1"/>
-    <col min="19" max="20" width="4.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="2" customWidth="1"/>
-    <col min="22" max="23" width="4.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="0.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="2" customWidth="1"/>
+    <col min="10" max="17" width="6.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="4.7265625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-    </row>
-    <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="33" t="s">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+    </row>
+    <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="36" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1962,65 +1968,65 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59" t="s">
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59" t="s">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="104"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2028,27 +2034,27 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="60" t="s">
+    <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="101"/>
+      <c r="C9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2056,23 +2062,23 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="53"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="98"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2080,23 +2086,23 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="68"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="64"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2104,23 +2110,23 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="68"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="64"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2128,23 +2134,23 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="68"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="64"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2152,23 +2158,23 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="68"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="64"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2176,23 +2182,23 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="68"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="64"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2200,23 +2206,23 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="68"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="64"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2224,23 +2230,23 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="68"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="64"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2248,23 +2254,23 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="68"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="64"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2272,261 +2278,261 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="68"/>
-    </row>
-    <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="64"/>
+    </row>
+    <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="68"/>
-    </row>
-    <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="64"/>
+    </row>
+    <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="68"/>
-    </row>
-    <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="64"/>
+    </row>
+    <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="68"/>
-    </row>
-    <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="64"/>
+    </row>
+    <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="68"/>
-    </row>
-    <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="64"/>
+    </row>
+    <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="68"/>
-    </row>
-    <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="64"/>
+    </row>
+    <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="68"/>
-    </row>
-    <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="64"/>
+    </row>
+    <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="68"/>
-    </row>
-    <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="64"/>
+    </row>
+    <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="68"/>
-    </row>
-    <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="64"/>
+    </row>
+    <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="68"/>
-    </row>
-    <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="64"/>
+    </row>
+    <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="86"/>
-    </row>
-    <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="69" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-    </row>
-    <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="74"/>
-    </row>
-    <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77"/>
-    </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2544,270 +2550,135 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79" t="s">
+      <c r="K34" s="51"/>
+      <c r="L34" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79" t="s">
+      <c r="M34" s="51"/>
+      <c r="N34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79" t="s">
+      <c r="O34" s="51"/>
+      <c r="P34" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="80"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="102" t="s">
+      <c r="Q34" s="52"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="105" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="105"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="88"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="99" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="101" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="88"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="89" t="s">
+      <c r="I36" s="34"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="94" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="88"/>
-    </row>
-    <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2831,6 +2702,147 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2842,21 +2854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3053,10 +3050,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3079,20 +3102,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1010,6 +1010,195 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,203 +1259,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,7 +1315,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1365,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1883,81 +1892,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1968,9 +1977,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1979,54 +1988,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104" t="s">
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104" t="s">
+      <c r="O8" s="58"/>
+      <c r="P8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="104"/>
+      <c r="Q8" s="58"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2035,26 +2044,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2064,21 +2073,21 @@
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="98"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="105"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2088,21 +2097,21 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="107"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2112,21 +2121,21 @@
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2136,21 +2145,21 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="64"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2160,21 +2169,21 @@
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2184,21 +2193,21 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2208,21 +2217,21 @@
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="64"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="107"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2232,21 +2241,21 @@
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="64"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="107"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2256,21 +2265,21 @@
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2280,257 +2289,257 @@
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="64"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="107"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="64"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="64"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="64"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="64"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="107"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="64"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="64"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="107"/>
     </row>
     <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="64"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="107"/>
     </row>
     <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="58"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="109"/>
     </row>
     <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="49"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="75"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2551,104 +2560,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51" t="s">
+      <c r="K34" s="77"/>
+      <c r="L34" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51" t="s">
+      <c r="M34" s="77"/>
+      <c r="N34" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51" t="s">
+      <c r="O34" s="77"/>
+      <c r="P34" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="52"/>
+      <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="100"/>
+      <c r="D35" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39" t="s">
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="85"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="97"/>
+      <c r="D36" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="35" t="s">
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="85"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="87"/>
+      <c r="D37" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28" t="s">
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="85"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2679,6 +2688,147 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2702,147 +2852,6 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2854,6 +2863,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3050,12 +3065,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3066,6 +3075,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3084,23 +3110,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -1010,6 +1010,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,6 +1244,12 @@
     <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,152 +1274,8 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1892,81 +1892,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1977,9 +1977,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,54 +1988,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
+      <c r="M8" s="106"/>
+      <c r="N8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58" t="s">
+      <c r="O8" s="106"/>
+      <c r="P8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="58"/>
+      <c r="Q8" s="106"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2044,26 +2044,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2073,21 +2073,21 @@
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="100"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2097,21 +2097,21 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="66"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2121,21 +2121,21 @@
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="66"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2145,21 +2145,21 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="66"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2169,21 +2169,21 @@
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="66"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2193,21 +2193,21 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="66"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="107"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2217,21 +2217,21 @@
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2241,21 +2241,21 @@
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="66"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2265,21 +2265,21 @@
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="66"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2289,257 +2289,257 @@
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="66"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="66"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="66"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
     </row>
     <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="107"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="109"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="75"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2560,104 +2560,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77" t="s">
+      <c r="K34" s="50"/>
+      <c r="L34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77" t="s">
+      <c r="M34" s="50"/>
+      <c r="N34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77" t="s">
+      <c r="O34" s="50"/>
+      <c r="P34" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="78"/>
+      <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="102"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="85"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="109"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="98" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="85"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="109"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="85"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="109"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2688,147 +2688,6 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2852,6 +2711,147 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2863,12 +2863,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3065,6 +3059,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3075,23 +3075,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3110,6 +3093,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -1010,7 +1010,217 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,216 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:Q37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1892,81 +1892,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="78"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1977,9 +1977,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="90"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,54 +1988,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106" t="s">
+      <c r="O8" s="60"/>
+      <c r="P8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="106"/>
+      <c r="Q8" s="60"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2044,26 +2044,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="103"/>
-      <c r="C9" s="107" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2072,22 +2072,24 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2096,22 +2098,24 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2120,22 +2124,24 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65"/>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2144,22 +2150,24 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2168,22 +2176,24 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2192,22 +2202,24 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="65"/>
+      <c r="B15" s="10">
+        <v>6</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2216,22 +2228,24 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="65"/>
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2240,22 +2254,24 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="65"/>
+      <c r="B17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2264,22 +2280,24 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
+      <c r="B18" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="70"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2288,258 +2306,280 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65"/>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
+      <c r="B20" s="10">
+        <v>11</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="70"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="65"/>
+      <c r="B21" s="10">
+        <v>12</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="70"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
+      <c r="B22" s="10">
+        <v>13</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="65"/>
+      <c r="B23" s="10">
+        <v>14</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="70"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="10"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="65"/>
+      <c r="B24" s="10">
+        <v>15</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="70"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
+      <c r="B25" s="10">
+        <v>16</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
+      <c r="B26" s="10">
+        <v>17</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="70"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65"/>
+      <c r="B27" s="10">
+        <v>18</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="65"/>
+      <c r="B28" s="10">
+        <v>19</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="70"/>
     </row>
     <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="B29" s="14">
+        <v>20</v>
+      </c>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="89"/>
     </row>
     <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="73"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="79"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2560,104 +2600,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50" t="s">
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50" t="s">
+      <c r="K34" s="81"/>
+      <c r="L34" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50" t="s">
+      <c r="M34" s="81"/>
+      <c r="N34" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50" t="s">
+      <c r="O34" s="81"/>
+      <c r="P34" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="51"/>
+      <c r="Q34" s="82"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="106"/>
+      <c r="D35" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38" t="s">
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="109"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="91"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="103"/>
+      <c r="D36" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="34" t="s">
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="109"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="91"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24" t="s">
+      <c r="C37" s="93"/>
+      <c r="D37" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27" t="s">
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="109"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="91"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2688,6 +2728,147 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2711,147 +2892,6 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -3060,18 +3100,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3094,6 +3134,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3108,12 +3156,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1010,6 +1010,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,15 +1211,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,6 +1234,12 @@
     </xf>
     <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,152 +1265,14 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,7 +1312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1362,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1441,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1892,81 +1889,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1977,9 +1974,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,54 +1985,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58" t="s">
+      <c r="K8" s="103"/>
+      <c r="L8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58" t="s">
+      <c r="O8" s="103"/>
+      <c r="P8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="58"/>
+      <c r="Q8" s="103"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2044,26 +2041,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2073,21 +2070,21 @@
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2097,21 +2094,21 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="66"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2121,21 +2118,21 @@
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="66"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2145,21 +2142,21 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="66"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2169,21 +2166,21 @@
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="66"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2193,21 +2190,21 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="66"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="107"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2217,21 +2214,21 @@
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2241,21 +2238,21 @@
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="66"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2265,21 +2262,21 @@
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="66"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2289,257 +2286,257 @@
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="66"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="65"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="66"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="65"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="66"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
     </row>
     <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="107"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="109"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="75"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2560,104 +2557,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77" t="s">
+      <c r="K34" s="50"/>
+      <c r="L34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77" t="s">
+      <c r="M34" s="50"/>
+      <c r="N34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77" t="s">
+      <c r="O34" s="50"/>
+      <c r="P34" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="78"/>
+      <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="102"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="85"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="108"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="98" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="85"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="108"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="85"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="108"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2688,147 +2685,6 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2852,6 +2708,147 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2869,6 +2866,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3065,15 +3071,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
@@ -3092,6 +3089,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3108,12 +3113,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1010,6 +1010,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,15 +1211,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,146 +1265,14 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,7 +1312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1362,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1441,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1892,81 +1889,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1977,9 +1974,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,54 +1985,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60" t="s">
+      <c r="K8" s="103"/>
+      <c r="L8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60" t="s">
+      <c r="O8" s="103"/>
+      <c r="P8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="60"/>
+      <c r="Q8" s="103"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2044,26 +2041,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2072,24 +2069,22 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2098,24 +2093,22 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2124,24 +2117,22 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2150,24 +2141,22 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
-        <v>4</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2176,24 +2165,22 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
-        <v>5</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2202,24 +2189,22 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10">
-        <v>6</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2228,24 +2213,22 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
-        <v>7</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2254,24 +2237,22 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
-        <v>8</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2280,24 +2261,22 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
-        <v>9</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="70"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2306,280 +2285,258 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="70"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
-        <v>11</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="70"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
-        <v>13</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="70"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
-        <v>14</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="70"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
-        <v>15</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="70"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
-        <v>16</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
-        <v>17</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="70"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
+      <c r="B27" s="10"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+    </row>
+    <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+    </row>
+    <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="14"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="70"/>
-    </row>
-    <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
-        <v>19</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="70"/>
-    </row>
-    <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="14">
-        <v>20</v>
-      </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="89"/>
-    </row>
-    <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="73"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="79"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2600,104 +2557,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81" t="s">
+      <c r="K34" s="50"/>
+      <c r="L34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81" t="s">
+      <c r="M34" s="50"/>
+      <c r="N34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81" t="s">
+      <c r="O34" s="50"/>
+      <c r="P34" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="82"/>
+      <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="108" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="108"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="104" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="91"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="108"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="91"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="108"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2728,147 +2685,6 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2892,6 +2708,147 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2903,6 +2860,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3099,22 +3071,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3131,29 +3113,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV1.xlsx
@@ -1010,7 +1010,214 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,213 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,7 +1312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{867BB813-DEF8-4144-8D08-5CBD08E1F685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{932F33AE-95B9-4510-A2AA-6E0ED4A02B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E422D042-3700-4E2E-AA31-89D7A09FE25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1889,81 +1889,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="78"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1974,9 +1974,9 @@
       <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="107"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,54 +1985,54 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="103"/>
+      <c r="Q8" s="59"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2041,26 +2041,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="100"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
       <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="15"/>
@@ -2069,22 +2069,24 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
       <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="15"/>
@@ -2093,22 +2095,24 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="69"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2117,22 +2121,24 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65"/>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="69"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2141,22 +2147,24 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="69"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2165,22 +2173,24 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="69"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2189,22 +2199,24 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="65"/>
+      <c r="B15" s="10">
+        <v>6</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
@@ -2213,22 +2225,24 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="65"/>
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2237,22 +2251,24 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="65"/>
+      <c r="B17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2261,22 +2277,24 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
+      <c r="B18" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2285,258 +2303,280 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65"/>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
+      <c r="B20" s="10">
+        <v>11</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="65"/>
+      <c r="B21" s="10">
+        <v>12</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
+      <c r="B22" s="10">
+        <v>13</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="65"/>
+      <c r="B23" s="10">
+        <v>14</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="10"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="65"/>
+      <c r="B24" s="10">
+        <v>15</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
+      <c r="B25" s="10">
+        <v>16</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
+      <c r="B26" s="10">
+        <v>17</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65"/>
+      <c r="B27" s="10">
+        <v>18</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="65"/>
+      <c r="B28" s="10">
+        <v>19</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="14"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="B29" s="14">
+        <v>20</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
     </row>
     <row r="30" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="42"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
     </row>
     <row r="31" spans="2:26" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="75"/>
     </row>
     <row r="32" spans="2:26" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
     </row>
     <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
@@ -2557,104 +2597,104 @@
       <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50" t="s">
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50" t="s">
+      <c r="K34" s="80"/>
+      <c r="L34" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50" t="s">
+      <c r="M34" s="80"/>
+      <c r="N34" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50" t="s">
+      <c r="O34" s="80"/>
+      <c r="P34" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="51"/>
+      <c r="Q34" s="81"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="105"/>
+      <c r="D35" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38" t="s">
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="108"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="90"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="102"/>
+      <c r="D36" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="34" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="108"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="90"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24" t="s">
+      <c r="C37" s="92"/>
+      <c r="D37" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27" t="s">
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="108"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="90"/>
     </row>
     <row r="38" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2685,6 +2725,147 @@
     <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="164">
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="B30:Q32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:Q1"/>
@@ -2708,147 +2889,6 @@
     <mergeCell ref="P8:Q9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B30:Q32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -2860,18 +2900,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3072,6 +3112,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3084,14 +3132,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
